--- a/docs/CamposXML_LILACS_PortalRegional.xlsx
+++ b/docs/CamposXML_LILACS_PortalRegional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\botturam\Documents\IAHx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A3A14EFB-ADBE-4FC3-B12A-79B9D680F02A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{892FDA7E-146A-4DB2-99EA-1086C3732389}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -304,12 +304,23 @@
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>if p(v18) then
+          <t>Apenas a primeira ocorrência:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+if p(v18) then
    if (v5='T' or v5='N') and not v6:'a' then
    else
           '    &lt;field name="book_title"&gt;'v18^*[1]'&lt;/field&gt;'/,
@@ -320,12 +331,164 @@
         </r>
       </text>
     </comment>
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{B5D78802-955A-437B-AD23-C4F9B1C552CE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+          </rPr>
+          <t xml:space="preserve">Nome da instância IAHx, vêm do arquivo coletasXML-IAHx.tab (7a. Coluna) – para Portal Regional
+Nas demais instâncias IAHx o valor é definido por outros critérios.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{6C3E3DA1-C646-472D-99C7-F6749F9E4C6D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">No XML-IAHx, além da sigla (2 caracteres), recebe tratamento para gerar o nome por extenso em 3 idiomas
+Exemplo:
+    &lt;field name="cp"&gt;BR&lt;/field&gt;
+    &lt;field name="cp"&gt;BRASIL&lt;/field&gt;
+    &lt;field name="cp"&gt;BRAZIL&lt;/field&gt;
+    &lt;field name="cp"&gt;BRASIL&lt;/field&gt;
+    &lt;field name="cp"&gt;BRESIL&lt;/field&gt;
+    &lt;field name="cp"&gt;BRASILE&lt;/field&gt;
+operacao@serverofi5:/bases/lilG4/tpl.lil $ mx ../tabs/tabpais "text=BRASIL" "proc='S'"
+mfn=    29
+  1  "BRASIL"
+  2  "BRAZIL"
+  3  "BRASIL"
+ 16  "Brésil"
+ 20  "BR"
+ 30  "AL"
+ 31  "América Latina"
+ 32  "Latin America"
+ 33  "América Latina"
+ 50  "BRESIL"
+ 50  "BRASILE"
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{F0EBF498-A7E6-454B-B2BF-94EB462D4826}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">SELECT `publication_country_id` FROM `biblioref_referencesource` -&gt; SELECT `name` FROM `utils_country`
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{D5812CEA-81F5-4609-B1FB-1D494251F070}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(if p(v76^0) then |    &lt;field name="ct"&gt;|v76^*|&lt;/field&gt;|/,,else  |    &lt;field name="ct"&gt;^d|v76^*|&lt;/field&gt;|/ fi)
+qdo não encontrar o "ct", coloca "^0x"; no FIADMIN, isso não ocorre ("ct" tem tabela controlada):
+ 76  "Humanos"
+ 76  "MASCULIN^0x"
+ 76  "Feminino"
+No XML-IAHx, trata-se de um campo codificado, para contemplar tradução nos 3 idiomas. Exemplo :
+    &lt;field name="ct"&gt;^d331&lt;/field&gt;
+    &lt;field name="ct"&gt;^d9062&lt;/field&gt;
+    &lt;field name="ct"&gt;^d21034&lt;/field&gt;
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{A1FB5D33-1D69-4AA2-9033-E4D0626F85D2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Exemplo:
+&lt;field name="cy"&gt;s.l&lt;/field&gt;
+&lt;field name="cy"&gt;Zacatecas&lt;/field&gt;
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D41" authorId="0" shapeId="0" xr:uid="{8DC3283D-AD94-48F2-A712-46D51DC6956D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">O campo "source_id" representa o campo 2 do documento </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>biblio-905126</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B73" authorId="0" shapeId="0" xr:uid="{329E0CB5-8DF7-4CF3-B048-F97F9DCF4261}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">(if p(v71^0) then |    &lt;field name="pt"&gt;|v71^*|&lt;/field&gt;|/,,else  |    &lt;field name="pt"&gt;^d|v71^*|&lt;/field&gt;|/ fi)
+qdo não encontrar o "pt", coloca "^0x"; no FIADMIN, isso não ocorre ("pt" tem tabela controlada):
+ 71  "CONGRESSO^0x"
+No XML-IAHx, trata-se de um campo codificado, para contemplar tradução nos 3 idiomas. Exemplo :
+    &lt;field name="pt"&gt;^d22780&lt;/field&gt;
+    &lt;field name="pt"&gt;^d21012&lt;/field&gt;
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="714">
   <si>
     <t>83 – Resumo</t>
   </si>
@@ -438,45 +601,10 @@
     <t>collection</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Nome da instância IAHx, vêm do arquivo coletasXML-IAHx.tab (7</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>. Coluna) – quando para Portal Regional
-Nas demais instâncias IAHx o valor é definido por outros critérios.</t>
-    </r>
-  </si>
-  <si>
     <t>collection_aps</t>
   </si>
   <si>
     <t>cp</t>
-  </si>
-  <si>
-    <t>67 – PAÍS DE PUBLICAÇÃO
-Recebe tratamento para incorporar a sigla em mais de um idioma</t>
   </si>
   <si>
     <t>ct</t>
@@ -761,10 +889,6 @@
   </si>
   <si>
     <t>biblioref_reference.publication_type</t>
-  </si>
-  <si>
-    <t>71 TIPO DE PUBLICAÇÃO
-Lista controlada</t>
   </si>
   <si>
     <t>pu</t>
@@ -2352,15 +2476,6 @@
     <t>ab</t>
   </si>
   <si>
-    <t>biblioref_referencesource.publication_country_id</t>
-  </si>
-  <si>
-    <t>Observação: para os registros MNT encontra-se no biblioref_referencesource.publication_country_id. Para os registros Sas é necessario fazer um link com o Título da Revista na title</t>
-  </si>
-  <si>
-    <t>SELECT * FROM `biblioref_referencesource` WHERE `publication_country_id` &lt;&gt; 'Null';</t>
-  </si>
-  <si>
     <t>representação JSON</t>
   </si>
   <si>
@@ -2510,27 +2625,10 @@
     <t>SELECT * FROM `biblioref_referencesource` WHERE `corporate_author_collection` &lt;&gt; 'Null'</t>
   </si>
   <si>
-    <t>[{"text": "Estudo de alternativa de valorização de resíduos de serviços de saúde advindos de processo de desinfecção por desativação eletrotérmica (ETD)", "_i": "pt"}, {"text": "Study of energy recovery the alternative from healthcare waste from disinfection process by electrothermal deactivation (ETD)", "_i": "en"}]</t>
-  </si>
-  <si>
     <t>SELECT `corporate_author` FROM `biblioref_referenceanalytic` WHERE `corporate_author` &lt;&gt; 'Null';</t>
   </si>
   <si>
     <t>biblioref_referenceanalytic.title_monographic</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18 TÍTULO (nível monográfico) - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Apenas a primeira ocorrência</t>
-    </r>
   </si>
   <si>
     <t>SELECT `title_monographic` FROM `biblioref_referencesource` WHERE `title_monographic` &lt;&gt; 'Null'</t>
@@ -2565,12 +2663,95 @@
   <si>
     <t>SELECT `cooperative_center_code` FROM `biblioref_reference`</t>
   </si>
+  <si>
+    <t>SELECT `conference_city` FROM `biblioref_referencecomplement`</t>
+  </si>
+  <si>
+    <t>SELECT `conference_normalized_date` FROM `biblioref_referencecomplement`</t>
+  </si>
+  <si>
+    <t>SELECT `conference_date` FROM `biblioref_referencecomplement`</t>
+  </si>
+  <si>
+    <t>SELECT `id` FROM `biblioref_referencecomplement`</t>
+  </si>
+  <si>
+    <t>Juiz de Fora</t>
+  </si>
+  <si>
+    <t>08 e 11 de outubro de 2014.</t>
+  </si>
+  <si>
+    <t>Fundação de Amparo à Pesquisa do Estado de São Paulo</t>
+  </si>
+  <si>
+    <t>SELECT `project_sponsoring_institution` FROM `biblioref_referencecomplement`</t>
+  </si>
+  <si>
+    <t>Programa de Medicina Interna e da Saúde</t>
+  </si>
+  <si>
+    <t>SELECT `project_name` FROM `biblioref_referencecomplement`</t>
+  </si>
+  <si>
+    <t>67 – PAÍS DE PUBLICAÇÃO</t>
+  </si>
+  <si>
+    <t>SELECT `name` FROM `utils_country`</t>
+  </si>
+  <si>
+    <t>18 TÍTULO (nível monográfico)</t>
+  </si>
+  <si>
+    <t>biblioref_referencesource.publication_country_id -&gt; utils_country.name</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>SELECT `publication_city` FROM `biblioref_referencesource` WHERE `publication_city` &lt;&gt; 'Null'</t>
+  </si>
+  <si>
+    <t>["Humans", "Male", "Female", "Adult", "Middle Aged"]</t>
+  </si>
+  <si>
+    <t>SELECT `check_tags` FROM `biblioref_reference`</t>
+  </si>
+  <si>
+    <t>71 TIPO DE PUBLICAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ["Case Reports"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT `publication_type` FROM `biblioref_reference` </t>
+  </si>
+  <si>
+    <t>SELECT `publication_date` FROM `biblioref_reference`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT `publication_date_normalized` FROM `biblioref_reference` </t>
+  </si>
+  <si>
+    <t>jan.-mar. 2016</t>
+  </si>
+  <si>
+    <t>Servicios de Salud
+Urgencia psiquiátrica
+Suicidio</t>
+  </si>
+  <si>
+    <t>SELECT * FROM `biblioref_referencelocal` WHERE `source_id` = '905126'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2579,13 +2760,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2656,10 +2830,9 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2735,9 +2908,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2759,7 +2932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2771,8 +2944,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2781,16 +2954,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -3184,17 +3375,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.1796875" customWidth="1"/>
-    <col min="2" max="2" width="57.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="63.453125" customWidth="1"/>
-    <col min="4" max="4" width="50.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="107.81640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.08984375" customWidth="1"/>
+    <col min="4" max="4" width="42.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67.26953125" style="24" customWidth="1"/>
     <col min="6" max="6" width="78" customWidth="1"/>
     <col min="7" max="7" width="11.54296875" customWidth="1"/>
     <col min="8" max="1025" width="11.54296875" hidden="1" customWidth="1"/>
@@ -3203,198 +3394,198 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B1" s="17" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="16"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>636</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>641</v>
+        <v>633</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>635</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>661</v>
+        <v>657</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>655</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>661</v>
+        <v>204</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>655</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>664</v>
+        <v>638</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>658</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>664</v>
+        <v>639</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>658</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>664</v>
+        <v>640</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>658</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>664</v>
+        <v>646</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>658</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>665</v>
+        <v>647</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>659</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>654</v>
+        <v>648</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>648</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>3</v>
@@ -3405,16 +3596,16 @@
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>667</v>
+      <c r="E12" s="24" t="s">
+        <v>661</v>
       </c>
       <c r="F12" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>6</v>
@@ -3424,147 +3615,147 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>672</v>
+        <v>664</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>666</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>674</v>
+        <v>376</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>668</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>676</v>
+        <v>78</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>670</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>678</v>
+        <v>408</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>672</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>681</v>
+        <v>441</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>675</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>685</v>
+        <v>445</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>679</v>
       </c>
       <c r="F19" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>692</v>
+        <v>682</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>684</v>
       </c>
       <c r="F20" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
@@ -3574,7 +3765,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>10</v>
@@ -3584,7 +3775,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>11</v>
@@ -3594,7 +3785,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>12</v>
@@ -3604,7 +3795,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>13</v>
@@ -3614,7 +3805,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>14</v>
@@ -3625,16 +3816,16 @@
       <c r="D26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>693</v>
+      <c r="E26" s="24" t="s">
+        <v>685</v>
       </c>
       <c r="F26" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>17</v>
@@ -3644,7 +3835,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>18</v>
@@ -3655,10 +3846,16 @@
       <c r="D28" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="E28" s="23">
+        <v>4593</v>
+      </c>
+      <c r="F28" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>21</v>
@@ -3669,10 +3866,16 @@
       <c r="D29" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="E29" s="24" t="s">
+        <v>691</v>
+      </c>
+      <c r="F29" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>24</v>
@@ -3683,10 +3886,16 @@
       <c r="D30" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="E30" s="24">
+        <v>20140410</v>
+      </c>
+      <c r="F30" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>27</v>
@@ -3697,10 +3906,16 @@
       <c r="D31" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="E31" s="24" t="s">
+        <v>692</v>
+      </c>
+      <c r="F31" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>30</v>
@@ -3711,10 +3926,16 @@
       <c r="D32" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="E32" s="24" t="s">
+        <v>693</v>
+      </c>
+      <c r="F32" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>33</v>
@@ -3725,746 +3946,785 @@
       <c r="D33" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="39.5" x14ac:dyDescent="0.25">
+      <c r="E33" s="24" t="s">
+        <v>695</v>
+      </c>
+      <c r="F33" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="3"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="23" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>701</v>
+      </c>
+      <c r="F36" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>650</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>639</v>
-      </c>
-      <c r="F36" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>656</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="E37" s="24" t="s">
+        <v>704</v>
+      </c>
+      <c r="F37" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>650</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>656</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>45</v>
+      <c r="E38" s="24" t="s">
+        <v>702</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="E39" s="24">
+        <v>20141200</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>650</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>656</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>53</v>
+      <c r="E41" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="D42" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>711</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D45" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D46" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="D52" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="D54" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="D55" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="D57" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="D58" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="D60" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="D61" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="D62" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="D63" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>650</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C65" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>656</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C65" s="4" t="s">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="B66" s="3" t="s">
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>649</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>655</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B68" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="D68" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>649</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>650</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>655</v>
-      </c>
-      <c r="B69" s="3" t="s">
+      <c r="C70" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>656</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C70" s="4" t="s">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>650</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>656</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71" s="4" t="s">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C72" s="5" t="s">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>650</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>656</v>
-      </c>
-      <c r="B73" s="3" t="s">
+      <c r="E73" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="F73" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>650</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C74" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D74" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>656</v>
-      </c>
-      <c r="B74" s="3" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>649</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>655</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>650</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>656</v>
-      </c>
-      <c r="B77" s="3" t="s">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>649</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C78" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>650</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>655</v>
-      </c>
-      <c r="B78" s="3" t="s">
+      <c r="C79" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>656</v>
-      </c>
-      <c r="B79" s="3" t="s">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>650</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>656</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="325" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>650</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C82" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D82" s="3" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="162.5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>656</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D89" s="3"/>
     </row>
@@ -4508,19 +4768,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>181</v>
       </c>
       <c r="F1" s="11"/>
     </row>
@@ -4529,19 +4789,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4549,19 +4809,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4569,19 +4829,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4589,19 +4849,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E5" s="4">
         <v>6</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4609,19 +4869,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E6" s="4">
         <v>7</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4629,19 +4889,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E7" s="4">
         <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4649,19 +4909,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E8" s="4">
         <v>35</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4669,19 +4929,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E9" s="4">
         <v>82</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4689,19 +4949,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E10" s="4">
         <v>83</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4709,19 +4969,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E11" s="4">
         <v>83</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4729,19 +4989,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E12" s="4">
         <v>84</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4749,19 +5009,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E13" s="4">
         <v>87</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4769,19 +5029,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E14" s="4">
         <v>88</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4789,7 +5049,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -4797,7 +5057,7 @@
         <v>203</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4805,15 +5065,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4821,15 +5081,15 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4837,19 +5097,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="E18" s="4">
         <v>653</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4857,19 +5117,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E19" s="4">
         <v>653</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4877,15 +5137,15 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4893,15 +5153,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4909,15 +5169,15 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4925,15 +5185,15 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4941,15 +5201,15 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4957,15 +5217,15 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4973,15 +5233,15 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4989,15 +5249,15 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5005,15 +5265,15 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5021,15 +5281,15 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5037,15 +5297,15 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -5053,15 +5313,15 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5069,15 +5329,15 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5085,15 +5345,15 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5101,15 +5361,15 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5117,15 +5377,15 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5133,15 +5393,15 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5149,15 +5409,15 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -5165,15 +5425,15 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5181,15 +5441,15 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -5197,15 +5457,15 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5213,15 +5473,15 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -5229,15 +5489,15 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5245,15 +5505,15 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -5261,15 +5521,15 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5277,15 +5537,15 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -5293,15 +5553,15 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5309,15 +5569,15 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5325,15 +5585,15 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -5341,15 +5601,15 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -5357,15 +5617,15 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5373,15 +5633,15 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -5389,15 +5649,15 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -5405,15 +5665,15 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -5421,15 +5681,15 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -5437,15 +5697,15 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -5453,15 +5713,15 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -5469,15 +5729,15 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -5485,15 +5745,15 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -5501,15 +5761,15 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -5517,15 +5777,15 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -5533,15 +5793,15 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -5549,15 +5809,15 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -5565,15 +5825,15 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -5581,15 +5841,15 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -5597,15 +5857,15 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -5613,15 +5873,15 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -5629,15 +5889,15 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -5645,15 +5905,15 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -5661,15 +5921,15 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -5677,15 +5937,15 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -5693,15 +5953,15 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -5709,15 +5969,15 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -5725,15 +5985,15 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -5741,15 +6001,15 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -5757,15 +6017,15 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -5773,15 +6033,15 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -5789,15 +6049,15 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -5805,15 +6065,15 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -5821,15 +6081,15 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -5837,15 +6097,15 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -5853,15 +6113,15 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -5869,15 +6129,15 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -5885,15 +6145,15 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -5901,15 +6161,15 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -5917,15 +6177,15 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -5933,15 +6193,15 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -5949,15 +6209,15 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -5965,15 +6225,15 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -5981,15 +6241,15 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -5997,15 +6257,15 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -6013,15 +6273,15 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -6029,19 +6289,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -6049,19 +6309,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -6069,12 +6329,12 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F94" s="4">
         <v>1</v>
@@ -6085,12 +6345,12 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -6101,19 +6361,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -6121,19 +6381,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -6141,19 +6401,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -6161,19 +6421,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -6181,19 +6441,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -6201,19 +6461,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -6221,15 +6481,15 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -6237,19 +6497,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -6257,19 +6517,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E104" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="F104" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -6277,19 +6537,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C105" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -6297,16 +6557,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F106" s="4"/>
     </row>
@@ -6315,19 +6575,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="F107" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -6335,19 +6595,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E108" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="F108" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -6355,19 +6615,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D109" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="E109" s="4" t="s">
-        <v>403</v>
-      </c>
       <c r="F109" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -6375,19 +6635,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -6395,15 +6655,15 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -6411,19 +6671,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C112" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F112" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -6431,19 +6691,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C113" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -6451,19 +6711,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C114" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F114" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -6471,19 +6731,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -6491,19 +6751,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -6511,19 +6771,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -6531,19 +6791,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C118" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F118" s="4" t="s">
         <v>431</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -6551,19 +6811,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C119" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="F119" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -6571,19 +6831,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="E120" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="F120" s="4" t="s">
         <v>440</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -6591,19 +6851,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C121" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F121" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -6611,19 +6871,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F122" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -6631,19 +6891,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C123" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="F123" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -6651,19 +6911,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C124" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="F124" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -6671,19 +6931,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -6691,19 +6951,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C126" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="F126" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -6711,19 +6971,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E127" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="F127" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -6731,19 +6991,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="F128" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -6751,15 +7011,15 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -6767,15 +7027,15 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -6783,19 +7043,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C131" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F131" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -6803,19 +7063,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D132" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F132" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -6823,19 +7083,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -6843,19 +7103,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -6863,19 +7123,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -6883,19 +7143,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="E136" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="F136" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -6903,19 +7163,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="F137" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -6923,19 +7183,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F138" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -6943,15 +7203,15 @@
         <v>139</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -6959,19 +7219,19 @@
         <v>142</v>
       </c>
       <c r="B140" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -6979,19 +7239,19 @@
         <v>143</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -6999,19 +7259,19 @@
         <v>144</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -7019,19 +7279,19 @@
         <v>145</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -7039,19 +7299,19 @@
         <v>146</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -7059,19 +7319,19 @@
         <v>147</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -7079,19 +7339,19 @@
         <v>148</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -7099,19 +7359,19 @@
         <v>149</v>
       </c>
       <c r="B147" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="F147" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -7119,19 +7379,19 @@
         <v>150</v>
       </c>
       <c r="B148" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="F148" s="4" t="s">
         <v>538</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -7139,19 +7399,19 @@
         <v>151</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E149" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="F149" s="4" t="s">
         <v>543</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -7159,19 +7419,19 @@
         <v>152</v>
       </c>
       <c r="B150" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="F150" s="4" t="s">
         <v>547</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -7179,19 +7439,19 @@
         <v>153</v>
       </c>
       <c r="B151" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="F151" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -7199,19 +7459,19 @@
         <v>154</v>
       </c>
       <c r="B152" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="F152" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -7219,19 +7479,19 @@
         <v>155</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -7239,19 +7499,19 @@
         <v>156</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -7259,19 +7519,19 @@
         <v>157</v>
       </c>
       <c r="B155" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="F155" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -7279,19 +7539,19 @@
         <v>158</v>
       </c>
       <c r="B156" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="F156" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -7299,19 +7559,19 @@
         <v>159</v>
       </c>
       <c r="B157" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="F157" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -7319,19 +7579,19 @@
         <v>160</v>
       </c>
       <c r="B158" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="F158" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -7339,15 +7599,15 @@
         <v>161</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -7355,19 +7615,19 @@
         <v>162</v>
       </c>
       <c r="B160" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="F160" s="4" t="s">
         <v>584</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -7375,19 +7635,19 @@
         <v>163</v>
       </c>
       <c r="B161" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F161" s="4" t="s">
         <v>588</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -7395,19 +7655,19 @@
         <v>164</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -7415,19 +7675,19 @@
         <v>165</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -7435,19 +7695,19 @@
         <v>166</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -7455,19 +7715,19 @@
         <v>167</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="F165" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -7475,15 +7735,15 @@
         <v>168</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -7491,15 +7751,15 @@
         <v>169</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -7507,15 +7767,15 @@
         <v>170</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="F168" s="4" t="s">
         <v>603</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -7523,15 +7783,15 @@
         <v>171</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -7539,15 +7799,15 @@
         <v>172</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -7555,15 +7815,15 @@
         <v>173</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -7571,15 +7831,15 @@
         <v>174</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -7587,15 +7847,15 @@
         <v>175</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -7603,15 +7863,15 @@
         <v>176</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -7619,15 +7879,15 @@
         <v>177</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -7635,15 +7895,15 @@
         <v>178</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -7651,15 +7911,15 @@
         <v>179</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -7667,15 +7927,15 @@
         <v>180</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -7683,15 +7943,15 @@
         <v>181</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -7699,15 +7959,15 @@
         <v>182</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -7715,15 +7975,15 @@
         <v>183</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -7731,19 +7991,19 @@
         <v>184</v>
       </c>
       <c r="B182" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="F182" s="4" t="s">
         <v>629</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -7751,13 +8011,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E183" s="4">
         <v>4</v>

--- a/docs/CamposXML_LILACS_PortalRegional.xlsx
+++ b/docs/CamposXML_LILACS_PortalRegional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\botturam\Documents\IAHx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{892FDA7E-146A-4DB2-99EA-1086C3732389}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{967E2086-1592-4A2C-AD6F-7E33E57B1E77}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,6 +431,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="B41" authorId="0" shapeId="0" xr:uid="{DF2BC195-420F-4007-82E3-0AA477CAADB0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">biblio-915184 doc com problema no campo 653:
+653  "CRENÇAS RELIGIOSAS RELIGIOUS BELIEFS CREENCIA RELIGIOSA RESILIÊNCIA (PSICOLOGIA) RESILIENCE (PSYCHOLOGY) RESILIENCIA (PSICOLOGIA) EVOLUÇÃO (BIOLOGIA) EVOLUTION (BIOLOGY) EVOLUCIÓN (BIOLOGÍA) PROCESSOS COGNITIVOS COGNITIVE PROCESSES PROCESOS COGNITIVOS"
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D41" authorId="0" shapeId="0" xr:uid="{8DC3283D-AD94-48F2-A712-46D51DC6956D}">
       <text>
         <r>
@@ -464,7 +479,345 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="0" shapeId="0" xr:uid="{329E0CB5-8DF7-4CF3-B048-F97F9DCF4261}">
+    <comment ref="B47" authorId="0" shapeId="0" xr:uid="{E39C8698-E7D3-4948-AE7E-F0B642B45160}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Utilizado no GOOGLE-Scholar
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{5FB8E825-F08D-4D79-8E88-052A59389D2E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Oriundo de diversos campos. A composição do campo Fonte (fo) varia conforme o tipo de documento e a fonte de informação. Exemplos:
+/* fonte pronto vindo da coleta OAI - WHOLIS */
+if p(v933) then '    &lt;field name="fo"&gt;'v933+| / |,,if p(v38) then ' ',v38+|, | fi,,if p(v68) then v68'.' ,fi,'&lt;/field&gt;'/,fi,
+/* fonte pronto vindo da nova FI EMRO */
+if p(v253) then '    &lt;field name="fo"&gt;'v253'&lt;/field&gt;'/,fi,
+-------
+if v06 = 'as' or p(v706) and a(v933)then
+                if p(v30) then
+                   if p(v14^f) then
+                        '    &lt;field name="fo"&gt;'v30|;|,v31,|(|v32|)|,|: |v14^f|-|v14^l|, |,v64|.|,if p(v38) then ' ',v38+|, | fi'&lt;/field&gt;'/
+                   else
+                        '    &lt;field name="fo"&gt;'v30|;|,v31,|(|v32|)|,|: |v14^*|, |,v64|.|,if p(v38) then ' ',v38+|, | fi'&lt;/field&gt;'/
+                   fi,
+               ,fi,
+,fi,
+-------
+        if p(v66) and a(v933) then
+          '    &lt;field name="fo"&gt;'
+                                v66,'; ',
+                                (v62+|;|),'; ',
+                                if p(v63) then (v63+|;|)'; ',fi,
+                                v64,'. ',
+                                v20| p. |,
+                                v38+|, |".",
+                                |(|v30,
+                                |, |v31,
+                                |, |v32,
+                                if p(v30) then ').' fi,
+                                | (|v68|).|,
+        '&lt;/field&gt;'/
+        ,fi,
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B49" authorId="0" shapeId="0" xr:uid="{EE9D1D4D-42EA-439C-88C2-140A01A01547}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Oriundo do campo 8:
+if v8:'Internet' or v8:'http' or v8:'www' or (getenv('VAR1')='lil' and l(['/bases/lnkG4/iah.lnk/iah2org']'ID=',v2) &gt; 0) then,
+   '    &lt;field name="fulltext"&gt;1&lt;/field&gt;'/
+fi,
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{61A4988F-45F7-48D5-9943-0E21EB6B319C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Condicionado às regras do legado
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B51" authorId="0" shapeId="0" xr:uid="{3EF91380-DF30-4A97-B5C3-022B26BE2B5E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Condicionado ao nome da base de dados (campo db)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B52" authorId="0" shapeId="0" xr:uid="{52A29345-4C6E-41F4-B51F-1B7D575B6F2D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(if p(v1010) then '    &lt;field name="instituicao_pais_afiliacao"&gt;'v1010'&lt;/field&gt;'/ fi)
+echo "gera campo 1010 instituicao,pais de afiliacao..."
+TPR="iffatal"
+MSG="Erro: gera campo 1010 instituicao,pais de afiliacao"
+mx ${PARM1}_t gizmo=../tabs/gafiliacao,10 fmtl=512000 "proc=(if p(v10^a) or p(v10^1) and p(v10^p) and not v10^a='s.af' and not v10^1='s.af' then if p(v10^a) and p(v10^p) then '&lt;1010&gt;'v10^a'+'v10^p'&lt;/1010&gt;' else if p(v10^1) and p(v10^p) then '&lt;1010&gt;'v10^1'+'v10^p'&lt;/1010&gt;' fi fi fi)" create=${PARM1}_t_tmp2 -all now tell=100000
+. log
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B53" authorId="0" shapeId="0" xr:uid="{8D3F49DC-049B-44EC-BC17-A285AAA4FEDE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Equivale ao campo "fa" (usado no GOOGLE-Scholar). É necessário verificar sua utilização nas rotinas pós geração de XML-IAHx. Aparentemente não é utilizado. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B58" authorId="0" shapeId="0" xr:uid="{76498553-2133-467B-A953-886E7486B201}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Idioma do texto do documento:
+(if p(v40) then
+  |    &lt;field name="la"&gt;|v40^*|&lt;/field&gt;|/
+  else
+        if p(v12^i) then
+          |    &lt;field name="la"&gt;|v12^i|&lt;/field&gt;|/
+    else
+                if p(v18^i) then
+          |    &lt;field name="la"&gt;|v18^i|&lt;/field&gt;|/
+                ,fi,
+        ,fi,
+,fi,)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B61" authorId="0" shapeId="0" xr:uid="{4CFA1D53-CC95-4153-8333-EBAD9A6199F0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">  (if v88:'^0x' then
+    /*|    &lt;field name="mh"&gt;^d|v88^*|&lt;/field&gt;|/,*/
+  else
+    |    &lt;field name="mh"&gt;|v88|&lt;/field&gt;|/,
+  fi),
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D61" authorId="0" shapeId="0" xr:uid="{EAD50605-A11E-4900-B0F2-90A59D8F2324}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>condicionado a “0” em main_descriptor.primary
+verificar o conteúdo das linhas da pesquisa:
+select * from `biblioref_referenceanalytic` where `</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>reference_ptr_id</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">` = '880008'
+(que se liga à tabela `main_descriptor` por </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>object_id</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B62" authorId="0" shapeId="0" xr:uid="{E95374DB-21C8-4515-8323-652AABE8FAC3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">  (if v87:'^0x' then
+    /*|    &lt;field name="mj"&gt;^d|v87^*|&lt;/field&gt;|/,*/
+  else
+    |    &lt;field name="mj"&gt;|v87|&lt;/field&gt;|/,
+  fi),
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{1732486E-2CBD-4C58-8BF9-C163BADF478F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>condicionado a “1” em main_descriptor.primary
+verificar o conteúdo da pesquisa:
+select * from `biblioref_referenceanalytic` where `reference_ptr_id` = '</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>880008</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">'
+(que se liga à tabela `main_descriptor` por </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>object_id</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B70" authorId="0" shapeId="0" xr:uid="{D3689552-A653-4FA5-922F-0E8D4B67B6D5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">   if p(v14) then
+           (,if p(v14^f) and p(v14^l) then
+                  |    &lt;field name="pg"&gt;|v14^f| - |v14^l|&lt;/field&gt;|/
+           else
+                  |    &lt;field name="pg"&gt;|v14^*|&lt;/field&gt;|/
+           ,fi,)
+   ,fi,
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B71" authorId="0" shapeId="0" xr:uid="{2B3FB973-5637-4954-A6FD-D70E854F74EF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> |    &lt;field name="pg"&gt;|v20^*|&lt;/field&gt;|/
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B74" authorId="0" shapeId="0" xr:uid="{329E0CB5-8DF7-4CF3-B048-F97F9DCF4261}">
       <text>
         <r>
           <rPr>
@@ -483,12 +836,99 @@
         </r>
       </text>
     </comment>
+    <comment ref="B77" authorId="0" shapeId="0" xr:uid="{735BCF0C-5EBB-4990-9869-2FFE707F450B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Assume 2 valores: LXP e SCAD
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B79" authorId="0" shapeId="0" xr:uid="{7207BBBB-FE48-4121-91BE-AD05931E2134}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Variações do título
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B83" authorId="0" shapeId="0" xr:uid="{29EE755A-BA74-4200-8398-716C1C2DAA45}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ab_&lt;biblioref_reference.abstract atributo: i&gt; (&lt;idioma 2 letras&gt;)
+Ex.: Quando existir atributo “i”
+&lt;field name="ti_pt"&gt;Nutricao, dieta e atividade fisica.&lt;/field&gt;
+ &lt;field name="ti_en"&gt;Nutrition, diet and physical activity&lt;/field&gt;
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B90" authorId="0" shapeId="0" xr:uid="{7C8BB7BE-4451-493D-A05F-AED996943B5C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">PFT → doctype.pft
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B91" authorId="0" shapeId="0" xr:uid="{7866E08E-BDD5-49E0-B9FA-6D99381551FC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Resultante de estratégia – cluster tipo de estudo
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B95" authorId="0" shapeId="0" xr:uid="{9351DB74-2423-4A5F-A363-E38285F9E8A5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Utilizado para fazer rank do registro em função da data
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="770">
   <si>
     <t>83 – Resumo</t>
   </si>
@@ -701,27 +1141,15 @@
     <t>fo</t>
   </si>
   <si>
-    <t>Oriundo de diversos campos</t>
-  </si>
-  <si>
     <t>fulltext</t>
   </si>
   <si>
-    <t>Oriundo do campo 8</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>Condicionado a regra de legado</t>
-  </si>
-  <si>
     <t>instance</t>
   </si>
   <si>
-    <t>Condicionado ao nome da base de dados (campo db)</t>
-  </si>
-  <si>
     <t>instituicao_pais_afiliacao</t>
   </si>
   <si>
@@ -734,9 +1162,6 @@
     <t>ip</t>
   </si>
   <si>
-    <t>32 NÚMERO DO FASCÍCULO (nível série)</t>
-  </si>
-  <si>
     <t>is</t>
   </si>
   <si>
@@ -791,9 +1216,6 @@
     <t>biblioref_referencelocal.call_number</t>
   </si>
   <si>
-    <t>3 LOCALIZAÇÃO DO DOCUMENTO</t>
-  </si>
-  <si>
     <t>mh</t>
   </si>
   <si>
@@ -816,9 +1238,6 @@
   </si>
   <si>
     <t>biblioref_reference.treatment_level</t>
-  </si>
-  <si>
-    <t>6 NÍVEL DE TRATAMENTO</t>
   </si>
   <si>
     <t>no_indexing</t>
@@ -861,12 +1280,6 @@
     <t>pg</t>
   </si>
   <si>
-    <t xml:space="preserve">biblioref_referencesource.pages_monographic (v20) / biblioref_referenceanalytic.pages atributos: f e l </t>
-  </si>
-  <si>
-    <t>Oriundo do campo 20 e 14</t>
-  </si>
-  <si>
     <t>pr_in</t>
   </si>
   <si>
@@ -906,9 +1319,6 @@
     <t>services</t>
   </si>
   <si>
-    <t>Assume 2 valores: LXP e SCAD</t>
-  </si>
-  <si>
     <t>ta</t>
   </si>
   <si>
@@ -921,18 +1331,12 @@
     <t>ta_var</t>
   </si>
   <si>
-    <t>Variações do título</t>
-  </si>
-  <si>
     <t>th_in</t>
   </si>
   <si>
     <t>biblioref_referencesource.thesis_dissertation_institution</t>
   </si>
   <si>
-    <t>50 TESE, DISSERTAÇÃO – INSTITUIÇÃO Ã QUAL SE APRESENTA</t>
-  </si>
-  <si>
     <t>th_le</t>
   </si>
   <si>
@@ -951,146 +1355,28 @@
     <t>51 TESE, DISSERTAÇÃO – TÍTULO ACADÊMICO</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ti_&lt;biblioref_referenceanalytic.title atributo: i&gt;
-ti_&lt;biblioref_referencesource.title_monographic atributo: i&gt;
-ti_&lt;biblioref_referencesource.title_collection atributo: i&gt;
-Ex.: Quando existir atributo “i”
-&lt;field name=”ti_en”&gt;
-** Quando não existir o atributo i nos campos informados acima, e existirem algum dos campos abaixo, ti_en receberá seu conteúdo
-biblioref_referenceanalytic.english_translated_title 13
-biblioref_referencesource.english_title_monographic - 19
-biblioref_referencesource.english_title_collection - 26
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">biblioref_referenceanalytic.title - 12
-biblioref_referenceanalytic.english_translated_title 13
-biblioref_referencesource.title_monographic - 18
-biblioref_referencesource.english_title_monographic - 19
-biblioref_referencesource.title_collection - 25
-biblioref_referencesource.english_title_collection - 26
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 TÍTULO (nível analítico)
-13 TÍTULO TRADUZIDO PARA O INGLÊS (nível analítico)
-18 TÍTULO (nível monográfico)
-19 TÍTULO TRADUZIDO PARA O INGLÊS (nível monográfico)
-25 TÍTULO (nível coleção)
-26 TÍTULO TRADUZIDO PARA O INGLÊS (nível coleção)
-</t>
-  </si>
-  <si>
-    <t>ti
-** Quando não existir o atributo i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biblioref_referenceanalytic.titl atributo: None
-biblioref_referencesource.title_monographic atributo: None
-biblioref_referencesource.title_collection atributo: None
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 TÍTULO (nível analítico)
-18 TÍTULO (nível monográfico)
-25 TÍTULO (nível coleção)
-</t>
-  </si>
-  <si>
     <t>tombo</t>
   </si>
   <si>
     <t>biblioref_referencelocal.inventory_number</t>
   </si>
   <si>
-    <t>7 TOMBO</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
-    <t>PFT → doctype.pft</t>
-  </si>
-  <si>
     <t>type_of_study</t>
   </si>
   <si>
-    <t>Resultante de estratégia – cluster tipo de estudo</t>
-  </si>
-  <si>
     <t>ur</t>
   </si>
   <si>
     <t>biblioref_reference.electronic_address</t>
   </si>
   <si>
-    <t>ENDEREÇO ELETRÔNICO</t>
-  </si>
-  <si>
     <t>vi</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">biblioref_referencesource.volume_monographic – 21
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>biblioref_referencesource.volume_serial – 31</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">21 VOLUME (nível monográfico)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>31 VOLUME (nível série)</t>
-    </r>
-  </si>
-  <si>
     <t>weight</t>
-  </si>
-  <si>
-    <t>Utilizado para fazer rank do registro em função da data</t>
   </si>
   <si>
     <t>#</t>
@@ -2724,9 +3010,6 @@
     <t>71 TIPO DE PUBLICAÇÃO</t>
   </si>
   <si>
-    <t xml:space="preserve">  ["Case Reports"]</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT `publication_type` FROM `biblioref_reference` </t>
   </si>
   <si>
@@ -2745,6 +3028,253 @@
   </si>
   <si>
     <t>SELECT * FROM `biblioref_referencelocal` WHERE `source_id` = '905126'</t>
+  </si>
+  <si>
+    <t>2 ed., aum., corr</t>
+  </si>
+  <si>
+    <t>SELECT `edition` FROM `biblioref_referencesource` WHERE `edition` &lt;&gt; ''</t>
+  </si>
+  <si>
+    <t>SELECT `transfer_date_to_database` FROM `biblioref_reference` WHERE `transfer_date_to_database` &lt;&gt; ''</t>
+  </si>
+  <si>
+    <t>2005-07-18</t>
+  </si>
+  <si>
+    <t>254/255</t>
+  </si>
+  <si>
+    <t>SELECT `issue_number` FROM `biblioref_referencesource` WHERE `issue_number` &lt;&gt; ''</t>
+  </si>
+  <si>
+    <t>vide "fa"</t>
+  </si>
+  <si>
+    <t>0103-5355</t>
+  </si>
+  <si>
+    <t>SELECT `issn` FROM `biblioref_referencesource` WHERE `issn` &lt;&gt; ''</t>
+  </si>
+  <si>
+    <t>980-6033-13-2</t>
+  </si>
+  <si>
+    <t>SELECT `isbn` FROM `biblioref_referencesource` WHERE `isbn` &lt;&gt; ''</t>
+  </si>
+  <si>
+    <t>[{"text": "Qualidade de vida", "_s": "", "_i": "pt"}, {"text": "Satisfação no trabalho", "_s": "", "_i": "pt"}, {"text": "Academias de ginástica", "_s": "", "_i": "pt"}, {"text": "Quality of life", "_s": "", "_i": "en"}, {"text": "Work satisfaction", "_s": "", "_i": "en"}, {"text": "Fitness Centers", "_s": "", "_i": "en"}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT `author_keyword` FROM `biblioref_reference` </t>
+  </si>
+  <si>
+    <t>["en", "pt"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT `text_language` FROM `biblioref_reference` </t>
+  </si>
+  <si>
+    <t>03 LOCALIZAÇÃO DO DOCUMENTO</t>
+  </si>
+  <si>
+    <t>BR1532.9</t>
+  </si>
+  <si>
+    <t>SELECT `cooperative_center_code` FROM `biblioref_referencelocal`</t>
+  </si>
+  <si>
+    <t>biblioref_referencelocal.cooperative_center_code</t>
+  </si>
+  <si>
+    <t>main_descriptor.code</t>
+  </si>
+  <si>
+    <t>Select * from `main_descriptor` where `object_id` = '880008'</t>
+  </si>
+  <si>
+    <t>^d5350</t>
+  </si>
+  <si>
+    <t>^d24457</t>
+  </si>
+  <si>
+    <t>88 DESCRITOR SECUNDÁRIO</t>
+  </si>
+  <si>
+    <t>87 DESCRITOR PRIMÁRIO</t>
+  </si>
+  <si>
+    <t>06 NÍVEL DE TRATAMENTO</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>Select `treatment_level` from `biblioref_reference`</t>
+  </si>
+  <si>
+    <t>82 REGIÃO NÃO DECS</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro, RJ
+Nova Iguaçu, RJ</t>
+  </si>
+  <si>
+    <t>Select `non_decs_region` from `biblioref_reference`</t>
+  </si>
+  <si>
+    <t>14 PÁGINAS (analítica)</t>
+  </si>
+  <si>
+    <t>20 PÁGINAS (monográfica)</t>
+  </si>
+  <si>
+    <t>[{"text": "", "_l": "351", "_f": "347"}]</t>
+  </si>
+  <si>
+    <t>IV,&lt;163&gt;</t>
+  </si>
+  <si>
+    <t>SELECT `pages` FROM `biblioref_referenceanalytic`</t>
+  </si>
+  <si>
+    <t>SELECT `pages_monographic` FROM `biblioref_referencesource` WHERE `pages_monographic` &lt;&gt; ''</t>
+  </si>
+  <si>
+    <t>pg (campo repetido)</t>
+  </si>
+  <si>
+    <t>biblioref_referenceanalytic.pages: JSON."_ l" e JSON."_ f"</t>
+  </si>
+  <si>
+    <t>["Case Reports"]</t>
+  </si>
+  <si>
+    <t>Sociedad Colombiana de Otorrinolaringologia</t>
+  </si>
+  <si>
+    <t>SELECT `publisher` FROM `biblioref_referencesource` WHERE `publisher` &lt;&gt; ''</t>
+  </si>
+  <si>
+    <t>Arq. bras. Neurocir</t>
+  </si>
+  <si>
+    <t>SELECT `title_serial` FROM `biblioref_referencesource`</t>
+  </si>
+  <si>
+    <t>50 TESE, DISSERTAÇÃO – INSTITUIÇÃO À QUAL SE APRESENTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Belize. Faculty of Science and Technology. Department of Science  </t>
+  </si>
+  <si>
+    <t>SELECT `thesis_dissertation_institution` FROM `biblioref_referencesource`</t>
+  </si>
+  <si>
+    <t>[{"text": "Uño Acebo, Liborio", "_3": "", "_2": "", "_1": "", "_p": "", "_c": ""}]</t>
+  </si>
+  <si>
+    <t>SELECT `thesis_dissertation_leader` FROM `biblioref_referencesource` WHERE `thesis_dissertation_leader` &lt;&gt; ''</t>
+  </si>
+  <si>
+    <t>Professor Livre Docente</t>
+  </si>
+  <si>
+    <t>SELECT `thesis_dissertation_academic_title` FROM `biblioref_referencesource` WHERE `thesis_dissertation_academic_title` &lt;&gt; ''</t>
+  </si>
+  <si>
+    <t>ti_&lt;idioma 2 letras&gt;</t>
+  </si>
+  <si>
+    <t>12 TÍTULO (nível analítico)</t>
+  </si>
+  <si>
+    <t>[{"text": "Current management of brain metastases", "_i": "en"}, {"text": "Manejo atual de metástases cerebrais", "_i": "pt"}]</t>
+  </si>
+  <si>
+    <t>SELECT `title` FROM `biblioref_referenceanalytic`</t>
+  </si>
+  <si>
+    <t>Cerebral revascularization in moyamoya disease</t>
+  </si>
+  <si>
+    <t>13 TÍTULO TRADUZIDO PARA O INGLÊS (nível analítico)</t>
+  </si>
+  <si>
+    <t>SELECT `english_translated_title` FROM `biblioref_referenceanalytic`</t>
+  </si>
+  <si>
+    <t>ti_en</t>
+  </si>
+  <si>
+    <t>19 TÍTULO TRADUZIDO PARA O INGLÊS (nível monográfico)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biblioref_referencesource.english_title_monographic </t>
+  </si>
+  <si>
+    <t>[{"text": "Informe del Diretor: anual 1983", "_i": "es"}]</t>
+  </si>
+  <si>
+    <t>SELECT `title_monographic` FROM `biblioref_referencesource` WHERE `title_monographic` &lt;&gt; ''</t>
+  </si>
+  <si>
+    <t>SELECT `english_title_monographic` FROM `biblioref_referencesource` WHERE `english_title_monographic` &lt;&gt; ''</t>
+  </si>
+  <si>
+    <t>Catalog of graduate courses on public health in Brazil</t>
+  </si>
+  <si>
+    <t>25 TÍTULO (nível coleção)</t>
+  </si>
+  <si>
+    <t>26 TÍTULO TRADUZIDO PARA O INGLÊS (nível coleção)</t>
+  </si>
+  <si>
+    <t>[{"text": "La salud en México: testimonios 1988", "_i": "es"}]</t>
+  </si>
+  <si>
+    <t>SELECT `title_collection` FROM `biblioref_referencesource` WHERE `title_collection` &lt;&gt; ''</t>
+  </si>
+  <si>
+    <t>International health: a North-South debate</t>
+  </si>
+  <si>
+    <t>SELECT `english_title_collection` FROM `biblioref_referencesource` WHERE `english_title_collection` &lt;&gt; ''</t>
+  </si>
+  <si>
+    <t>07 TOMBO</t>
+  </si>
+  <si>
+    <t>PAHO/PANAFTOSA</t>
+  </si>
+  <si>
+    <t>SELECT * FROM `biblioref_referencelocal` WHERE `inventory_number` &lt;&gt; ''</t>
+  </si>
+  <si>
+    <t>[{"_z": "", "_y": "PDF", "_x": "", "_u": "http://docs.bvsalud.org/biblioref/2016/05/8/a375-379.pdf", "_s": "", "_q": "pdf", "_l": "", "_k": "", "_i": "pt", "_g": false}]</t>
+  </si>
+  <si>
+    <t>SELECT `electronic_address` FROM `biblioref_reference` WHERE `electronic_address` &lt;&gt; ''</t>
+  </si>
+  <si>
+    <t>SELECT `volume_serial` FROM `biblioref_referencesource` WHERE `volume_serial` &lt;&gt; ''</t>
+  </si>
+  <si>
+    <t>21 VOLUME (nível monográfico)</t>
+  </si>
+  <si>
+    <t>31 VOLUME (nível série)</t>
+  </si>
+  <si>
+    <t>v.1</t>
+  </si>
+  <si>
+    <t>SELECT `volume_monographic` FROM `biblioref_referencesource` WHERE `volume_monographic` &lt;&gt; ''</t>
+  </si>
+  <si>
+    <t>08 ENDEREÇO ELETRÔNICO</t>
   </si>
 </sst>
 </file>
@@ -2835,7 +3365,7 @@
       <name val="Segoe UI"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2869,6 +3399,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2910,7 +3446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2982,6 +3518,23 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -3064,6 +3617,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3373,10 +3929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK89"/>
+  <dimension ref="A1:AMK95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3386,7 +3942,7 @@
     <col min="3" max="3" width="52.08984375" customWidth="1"/>
     <col min="4" max="4" width="42.26953125" style="1" customWidth="1"/>
     <col min="5" max="5" width="67.26953125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="78" customWidth="1"/>
+    <col min="6" max="6" width="76.1796875" customWidth="1"/>
     <col min="7" max="7" width="11.54296875" customWidth="1"/>
     <col min="8" max="1025" width="11.54296875" hidden="1" customWidth="1"/>
     <col min="1026" max="16384" width="8.7265625" hidden="1"/>
@@ -3394,10 +3950,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B1" s="17" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="D1" s="2"/>
     </row>
@@ -3408,184 +3964,184 @@
     </row>
     <row r="3" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>652</v>
+        <v>627</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>656</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>653</v>
+        <v>628</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>657</v>
+        <v>632</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>654</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>654</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>660</v>
+        <v>635</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>660</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>660</v>
+        <v>635</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>660</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>659</v>
+        <v>634</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>660</v>
+        <v>635</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>3</v>
@@ -3597,15 +4153,15 @@
         <v>4</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="F12" t="s">
-        <v>662</v>
+        <v>637</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>6</v>
@@ -3615,147 +4171,147 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>664</v>
+        <v>639</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>666</v>
+        <v>641</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>668</v>
+        <v>643</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>674</v>
+        <v>649</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>672</v>
+        <v>647</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>677</v>
+        <v>652</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="F19" t="s">
-        <v>680</v>
+        <v>655</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>699</v>
+        <v>674</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>684</v>
+        <v>659</v>
       </c>
       <c r="F20" t="s">
-        <v>683</v>
+        <v>658</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
@@ -3765,7 +4321,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>10</v>
@@ -3775,7 +4331,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>11</v>
@@ -3785,7 +4341,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>12</v>
@@ -3795,7 +4351,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>13</v>
@@ -3805,7 +4361,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>14</v>
@@ -3817,15 +4373,15 @@
         <v>15</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>685</v>
+        <v>660</v>
       </c>
       <c r="F26" t="s">
-        <v>686</v>
+        <v>661</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>17</v>
@@ -3835,7 +4391,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>18</v>
@@ -3850,12 +4406,12 @@
         <v>4593</v>
       </c>
       <c r="F28" t="s">
-        <v>690</v>
+        <v>665</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>21</v>
@@ -3867,15 +4423,15 @@
         <v>22</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>691</v>
+        <v>666</v>
       </c>
       <c r="F29" t="s">
-        <v>687</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>24</v>
@@ -3890,12 +4446,12 @@
         <v>20140410</v>
       </c>
       <c r="F30" t="s">
-        <v>688</v>
+        <v>663</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>27</v>
@@ -3907,15 +4463,15 @@
         <v>28</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>692</v>
+        <v>667</v>
       </c>
       <c r="F31" t="s">
-        <v>689</v>
+        <v>664</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>30</v>
@@ -3927,15 +4483,15 @@
         <v>31</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>693</v>
+        <v>668</v>
       </c>
       <c r="F32" t="s">
-        <v>694</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>33</v>
@@ -3947,15 +4503,15 @@
         <v>34</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>695</v>
+        <v>670</v>
       </c>
       <c r="F33" t="s">
-        <v>696</v>
+        <v>671</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>36</v>
@@ -3967,7 +4523,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>37</v>
@@ -3977,27 +4533,27 @@
     </row>
     <row r="36" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>697</v>
+        <v>672</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>701</v>
+        <v>676</v>
       </c>
       <c r="F36" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>39</v>
@@ -4009,15 +4565,15 @@
         <v>40</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>704</v>
+        <v>679</v>
       </c>
       <c r="F37" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>42</v>
@@ -4029,15 +4585,15 @@
         <v>43</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>702</v>
+        <v>677</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>703</v>
+        <v>678</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>45</v>
@@ -4052,12 +4608,12 @@
         <v>20141200</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>48</v>
@@ -4069,7 +4625,7 @@
     </row>
     <row r="41" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>50</v>
@@ -4081,15 +4637,15 @@
         <v>51</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>713</v>
+        <v>687</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>53</v>
@@ -4101,15 +4657,15 @@
         <v>54</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>709</v>
+        <v>683</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -4121,7 +4677,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>58</v>
@@ -4133,7 +4689,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>60</v>
@@ -4144,24 +4700,36 @@
       <c r="D45" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>650</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="E45" s="24" t="s">
+        <v>688</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="B46" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="33" t="s">
         <v>64</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>691</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>66</v>
@@ -4172,561 +4740,801 @@
       <c r="D47" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="E47" s="24" t="s">
+        <v>692</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>624</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>649</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="4"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>624</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>624</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>649</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="C51" s="4"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C52" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>649</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="4" t="s">
+    </row>
+    <row r="53" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="36" t="s">
+        <v>625</v>
+      </c>
+      <c r="B53" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="B52" s="3" t="s">
+      <c r="C53" s="38" t="s">
+        <v>694</v>
+      </c>
+      <c r="D53" s="38"/>
+      <c r="E53" s="39"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>625</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>650</v>
-      </c>
-      <c r="B53" s="3" t="s">
+      <c r="E54" s="24" t="s">
+        <v>695</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>625</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C55" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>650</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="E55" s="24" t="s">
+        <v>697</v>
+      </c>
+      <c r="F55" s="30" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>624</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>650</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>625</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>649</v>
-      </c>
-      <c r="B56" s="3" t="s">
+      <c r="E57" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>625</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C58" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>650</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="4" t="s">
+      <c r="E58" s="24" t="s">
+        <v>701</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>650</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>625</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C60" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>704</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>625</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>650</v>
-      </c>
-      <c r="B60" s="3" t="s">
+      <c r="C61" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>625</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>650</v>
-      </c>
-      <c r="B61" s="3" t="s">
+      <c r="C62" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>709</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>625</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C63" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>624</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>650</v>
-      </c>
-      <c r="B62" s="3" t="s">
+      <c r="C64" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>625</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>650</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>649</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>650</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>113</v>
+      <c r="E65" s="29" t="s">
+        <v>717</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>124</v>
+        <v>719</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>123</v>
+        <v>726</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>721</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>125</v>
+        <v>725</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>127</v>
+        <v>720</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>126</v>
+        <v>407</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>722</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>625</v>
+      </c>
       <c r="B72" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>130</v>
+        <v>116</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>668</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>650</v>
-      </c>
       <c r="B73" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>706</v>
+        <v>119</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E73" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="F73" t="s">
-        <v>708</v>
+        <v>120</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>670</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>135</v>
+        <v>122</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>681</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>727</v>
+      </c>
+      <c r="F74" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>138</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C76" s="4"/>
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>140</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D78" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>730</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>625</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>735</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>625</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>737</v>
+      </c>
+      <c r="F82" s="30" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>625</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>741</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>625</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>743</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>625</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>749</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>625</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="F86" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="G86" s="30"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>625</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>755</v>
+      </c>
+      <c r="F87" s="30" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>625</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="F88" s="30" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>625</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>760</v>
+      </c>
+      <c r="F89" s="30" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>624</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>624</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>625</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>762</v>
+      </c>
+      <c r="F92" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>625</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D80" s="4" t="s">
+      <c r="C93" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="F93" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>625</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="E94" s="24">
+        <v>52</v>
+      </c>
+      <c r="F94" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>624</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>650</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="325" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>650</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>650</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>650</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>649</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>649</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>650</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>650</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>649</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D89" s="3"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -4768,19 +5576,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="F1" s="11"/>
     </row>
@@ -4789,19 +5597,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4809,19 +5617,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4829,19 +5637,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4849,19 +5657,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="E5" s="4">
         <v>6</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4869,19 +5677,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="E6" s="4">
         <v>7</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4889,19 +5697,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="E7" s="4">
         <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4909,19 +5717,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E8" s="4">
         <v>35</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4929,19 +5737,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E9" s="4">
         <v>82</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4949,19 +5757,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="E10" s="4">
         <v>83</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4969,19 +5777,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="E11" s="4">
         <v>83</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4989,19 +5797,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="E12" s="4">
         <v>84</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5009,19 +5817,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E13" s="4">
         <v>87</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5029,19 +5837,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E14" s="4">
         <v>88</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5049,7 +5857,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -5057,7 +5865,7 @@
         <v>203</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5065,15 +5873,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5081,15 +5889,15 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5097,19 +5905,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="E18" s="4">
         <v>653</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5117,19 +5925,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="E19" s="4">
         <v>653</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5137,15 +5945,15 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5153,15 +5961,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5169,15 +5977,15 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5185,15 +5993,15 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5201,15 +6009,15 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5217,15 +6025,15 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5233,15 +6041,15 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5249,15 +6057,15 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5265,15 +6073,15 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5281,15 +6089,15 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5297,15 +6105,15 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -5313,15 +6121,15 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5329,15 +6137,15 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5345,15 +6153,15 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5361,15 +6169,15 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5377,15 +6185,15 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5393,15 +6201,15 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5409,15 +6217,15 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -5425,15 +6233,15 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5441,15 +6249,15 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -5457,15 +6265,15 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5473,15 +6281,15 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -5489,15 +6297,15 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5505,15 +6313,15 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -5521,15 +6329,15 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5537,15 +6345,15 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -5553,15 +6361,15 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5569,15 +6377,15 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5585,15 +6393,15 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -5601,15 +6409,15 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -5617,15 +6425,15 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5633,15 +6441,15 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -5649,15 +6457,15 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -5665,15 +6473,15 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -5681,15 +6489,15 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -5697,15 +6505,15 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -5713,15 +6521,15 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -5729,15 +6537,15 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -5745,15 +6553,15 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -5761,15 +6569,15 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -5777,15 +6585,15 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -5793,15 +6601,15 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -5809,15 +6617,15 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -5825,15 +6633,15 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -5841,15 +6649,15 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -5857,15 +6665,15 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -5873,15 +6681,15 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -5889,15 +6697,15 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -5905,15 +6713,15 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -5921,15 +6729,15 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -5937,15 +6745,15 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -5953,15 +6761,15 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -5969,15 +6777,15 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -5985,15 +6793,15 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -6001,15 +6809,15 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -6017,15 +6825,15 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -6033,15 +6841,15 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -6049,15 +6857,15 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -6065,15 +6873,15 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -6081,15 +6889,15 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -6097,15 +6905,15 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -6113,15 +6921,15 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -6129,15 +6937,15 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -6145,15 +6953,15 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -6161,15 +6969,15 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -6177,15 +6985,15 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -6193,15 +7001,15 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -6209,15 +7017,15 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -6225,15 +7033,15 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -6241,15 +7049,15 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -6257,15 +7065,15 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -6273,15 +7081,15 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -6289,19 +7097,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -6309,19 +7117,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -6329,12 +7137,12 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="F94" s="4">
         <v>1</v>
@@ -6345,12 +7153,12 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -6361,19 +7169,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -6381,19 +7189,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -6401,19 +7209,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -6421,19 +7229,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -6441,19 +7249,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -6461,19 +7269,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -6481,15 +7289,15 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -6497,19 +7305,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -6517,19 +7325,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -6537,19 +7345,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -6557,16 +7365,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="F106" s="4"/>
     </row>
@@ -6575,19 +7383,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -6595,19 +7403,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -6615,19 +7423,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -6635,19 +7443,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -6655,15 +7463,15 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -6671,19 +7479,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -6691,19 +7499,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -6711,19 +7519,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -6731,19 +7539,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -6751,19 +7559,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -6771,19 +7579,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>412</v>
-      </c>
       <c r="D117" s="4" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -6791,19 +7599,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -6811,19 +7619,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -6831,19 +7639,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -6851,19 +7659,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -6871,19 +7679,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -6891,19 +7699,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -6911,19 +7719,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -6931,19 +7739,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -6951,19 +7759,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -6971,19 +7779,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -6991,19 +7799,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -7011,15 +7819,15 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -7027,15 +7835,15 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -7043,19 +7851,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -7063,19 +7871,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -7083,19 +7891,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -7103,19 +7911,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -7123,19 +7931,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -7143,19 +7951,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -7163,19 +7971,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -7183,19 +7991,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -7203,15 +8011,15 @@
         <v>139</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -7219,19 +8027,19 @@
         <v>142</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -7239,19 +8047,19 @@
         <v>143</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -7259,19 +8067,19 @@
         <v>144</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -7279,19 +8087,19 @@
         <v>145</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -7299,19 +8107,19 @@
         <v>146</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -7319,19 +8127,19 @@
         <v>147</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -7339,19 +8147,19 @@
         <v>148</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -7359,19 +8167,19 @@
         <v>149</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -7379,19 +8187,19 @@
         <v>150</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -7399,19 +8207,19 @@
         <v>151</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -7419,19 +8227,19 @@
         <v>152</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -7439,19 +8247,19 @@
         <v>153</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -7459,19 +8267,19 @@
         <v>154</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -7479,19 +8287,19 @@
         <v>155</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -7499,19 +8307,19 @@
         <v>156</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -7519,19 +8327,19 @@
         <v>157</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -7539,19 +8347,19 @@
         <v>158</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -7559,19 +8367,19 @@
         <v>159</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -7579,19 +8387,19 @@
         <v>160</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -7599,15 +8407,15 @@
         <v>161</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -7615,19 +8423,19 @@
         <v>162</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -7635,19 +8443,19 @@
         <v>163</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -7655,19 +8463,19 @@
         <v>164</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -7675,19 +8483,19 @@
         <v>165</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -7695,19 +8503,19 @@
         <v>166</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -7715,19 +8523,19 @@
         <v>167</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -7735,15 +8543,15 @@
         <v>168</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -7751,15 +8559,15 @@
         <v>169</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -7767,15 +8575,15 @@
         <v>170</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -7783,15 +8591,15 @@
         <v>171</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -7799,15 +8607,15 @@
         <v>172</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -7815,15 +8623,15 @@
         <v>173</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -7831,15 +8639,15 @@
         <v>174</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -7847,15 +8655,15 @@
         <v>175</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>610</v>
+        <v>585</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -7863,15 +8671,15 @@
         <v>176</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -7879,15 +8687,15 @@
         <v>177</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -7895,15 +8703,15 @@
         <v>178</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -7911,15 +8719,15 @@
         <v>179</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -7927,15 +8735,15 @@
         <v>180</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -7943,15 +8751,15 @@
         <v>181</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -7959,15 +8767,15 @@
         <v>182</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -7975,15 +8783,15 @@
         <v>183</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -7991,19 +8799,19 @@
         <v>184</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -8011,13 +8819,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="E183" s="4">
         <v>4</v>

--- a/docs/CamposXML_LILACS_PortalRegional.xlsx
+++ b/docs/CamposXML_LILACS_PortalRegional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\botturam\Documents\IAHx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{967E2086-1592-4A2C-AD6F-7E33E57B1E77}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DB86A001-2039-4616-99D5-9E1EB36A4110}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,6 +431,95 @@
         </r>
       </text>
     </comment>
+    <comment ref="B40" authorId="0" shapeId="0" xr:uid="{422ECF9C-A372-419B-8A64-1947F1D6590B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Nome da Base de dados (repetitivo); segue as regras em db.pft;
+OBS: Pode vir do campo 4 (LILDBI); pode ser cravado (fixo); pode vir do 904, se vier do FIADMIN. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">else if getenv('VAR2')='FIOCRUZ'
+        then
+   '    &lt;field name="db"&gt;'v776^b'&lt;/field&gt;'/,
+   '    &lt;field name="db"&gt;FIOCRUZ&lt;/field&gt;'/,
+else if getenv('VAR2')='VETINDEX'
+        then
+   (|    &lt;field name="db"&gt;|v4|&lt;/field&gt;|/),
+else if getenv('VAR2')='PERINATALURU'
+        then
+   '    &lt;field name="db"&gt;MMyP&lt;/field&gt;'/,
+else if getenv('VAR2')='IEC'
+   then @../tabs/fi_IEC.pft,
+   '    &lt;field name="db"&gt;'getenv('VAR2')'&lt;/field&gt;'/,
+else if getenv('VAR2')='LILACS'
+        then
+           (|    &lt;field name="db"&gt;|v904|&lt;/field&gt;|/),
+   if v913:'BDENF' then '    &lt;field name="db"&gt;BDENF&lt;/field&gt;'/, fi,
+else if p(v904)
+        then
+           (|    &lt;field name="db"&gt;|v904|&lt;/field&gt;|/),
+else
+   '    &lt;field name="db"&gt;'getenv('VAR2')'&lt;/field&gt;'/,
+fi,fi,fi,fi,fi,fi,fi,fi,fi,fi
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B41" authorId="0" shapeId="0" xr:uid="{DF2BC195-420F-4007-82E3-0AA477CAADB0}">
       <text>
         <r>
@@ -563,7 +652,106 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Condicionado às regras do legado
+          <t xml:space="preserve">Condicionado às regras do legado:
+1) Para os docs mais novos, inseridos diretamente no FIADMIN, é "biblio-"PK
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>biblioref_reference.id</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &lt;=&gt; biblioref_referenceanalytic.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">reference_ptr_id &lt;=&gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>biblioref_referencealternateid</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>.reference_id</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+biblioref_referenceanalytic.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>source_id</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  &lt;=&gt; biblioref_referencesource.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">reference_ptr_id </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2)
 </t>
         </r>
       </text>
@@ -928,7 +1116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="775">
   <si>
     <t>83 – Resumo</t>
   </si>
@@ -1076,9 +1264,6 @@
   </si>
   <si>
     <t>db</t>
-  </si>
-  <si>
-    <t>Nome da instância IAHx, vêm do arquivo coletasXML-IAHx.tab (2a. Coluna)</t>
   </si>
   <si>
     <t>descritores_locais</t>
@@ -3016,9 +3201,6 @@
     <t>SELECT `publication_date` FROM `biblioref_reference`</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT `publication_date_normalized` FROM `biblioref_reference` </t>
-  </si>
-  <si>
     <t>jan.-mar. 2016</t>
   </si>
   <si>
@@ -3275,13 +3457,66 @@
   </si>
   <si>
     <t>08 ENDEREÇO ELETRÔNICO</t>
+  </si>
+  <si>
+    <t>04 BASE DE DADOS</t>
+  </si>
+  <si>
+    <t>database_database.acronym</t>
+  </si>
+  <si>
+    <t>BBO</t>
+  </si>
+  <si>
+    <t>SELECT `publication_date_normalized` FROM `biblioref_reference`</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT database_id FROM `biblioref_reference_indexed_database` WHERE `reference_id` = '99924'
+SELECT `acronym` FROM `database_database` WHERE `id`= 1
+SELECT `acronym` FROM `database_database` WHERE `id`= 2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SELECT * FROM `biblioref_reference` WHERE `id` </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">= '99924' </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Exemplo de documento)</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT * FROM `biblioref_reference` WHERE `id` = '99924'</t>
+  </si>
+  <si>
+    <t>02 NÙMERO DE IDENTIFICAÇÂO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3363,6 +3598,12 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3446,7 +3687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3534,6 +3775,9 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3931,8 +4175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:XFD93"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3942,7 +4186,7 @@
     <col min="3" max="3" width="52.08984375" customWidth="1"/>
     <col min="4" max="4" width="42.26953125" style="1" customWidth="1"/>
     <col min="5" max="5" width="67.26953125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="76.1796875" customWidth="1"/>
+    <col min="6" max="6" width="82.1796875" customWidth="1"/>
     <col min="7" max="7" width="11.54296875" customWidth="1"/>
     <col min="8" max="1025" width="11.54296875" hidden="1" customWidth="1"/>
     <col min="1026" max="16384" width="8.7265625" hidden="1"/>
@@ -3950,10 +4194,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B1" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>611</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>612</v>
       </c>
       <c r="D1" s="2"/>
     </row>
@@ -3964,184 +4208,184 @@
     </row>
     <row r="3" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>627</v>
-      </c>
       <c r="D3" s="13" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E10" s="24" t="s">
+        <v>633</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>634</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>3</v>
@@ -4153,15 +4397,15 @@
         <v>4</v>
       </c>
       <c r="E12" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="F12" t="s">
         <v>636</v>
-      </c>
-      <c r="F12" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>6</v>
@@ -4171,147 +4415,147 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>639</v>
-      </c>
       <c r="E14" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="F14" s="20" t="s">
         <v>641</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>644</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="24" t="s">
+      <c r="F16" s="20" t="s">
         <v>645</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E17" s="24" t="s">
+        <v>646</v>
+      </c>
+      <c r="F17" s="20" t="s">
         <v>647</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E18" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>650</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>653</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E19" s="24" t="s">
+      <c r="F19" t="s">
         <v>654</v>
-      </c>
-      <c r="F19" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>658</v>
+      </c>
+      <c r="F20" t="s">
         <v>657</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>659</v>
-      </c>
-      <c r="F20" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
@@ -4321,7 +4565,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>10</v>
@@ -4331,7 +4575,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>11</v>
@@ -4341,7 +4585,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>12</v>
@@ -4351,7 +4595,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>13</v>
@@ -4361,7 +4605,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>14</v>
@@ -4373,15 +4617,15 @@
         <v>15</v>
       </c>
       <c r="E26" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="F26" t="s">
         <v>660</v>
-      </c>
-      <c r="F26" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>17</v>
@@ -4391,7 +4635,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>18</v>
@@ -4406,12 +4650,12 @@
         <v>4593</v>
       </c>
       <c r="F28" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>21</v>
@@ -4423,15 +4667,15 @@
         <v>22</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F29" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>24</v>
@@ -4446,12 +4690,12 @@
         <v>20140410</v>
       </c>
       <c r="F30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>27</v>
@@ -4463,15 +4707,15 @@
         <v>28</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F31" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>30</v>
@@ -4483,15 +4727,15 @@
         <v>31</v>
       </c>
       <c r="E32" s="24" t="s">
+        <v>667</v>
+      </c>
+      <c r="F32" t="s">
         <v>668</v>
-      </c>
-      <c r="F32" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>33</v>
@@ -4503,15 +4747,15 @@
         <v>34</v>
       </c>
       <c r="E33" s="24" t="s">
+        <v>669</v>
+      </c>
+      <c r="F33" t="s">
         <v>670</v>
-      </c>
-      <c r="F33" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>36</v>
@@ -4523,7 +4767,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>37</v>
@@ -4533,27 +4777,27 @@
     </row>
     <row r="36" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>675</v>
+      </c>
+      <c r="F36" t="s">
         <v>672</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>676</v>
-      </c>
-      <c r="F36" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>39</v>
@@ -4565,15 +4809,15 @@
         <v>40</v>
       </c>
       <c r="E37" s="24" t="s">
+        <v>678</v>
+      </c>
+      <c r="F37" t="s">
         <v>679</v>
-      </c>
-      <c r="F37" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>42</v>
@@ -4585,15 +4829,15 @@
         <v>43</v>
       </c>
       <c r="E38" s="24" t="s">
+        <v>676</v>
+      </c>
+      <c r="F38" s="28" t="s">
         <v>677</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>45</v>
@@ -4607,11 +4851,11 @@
       <c r="E39" s="24">
         <v>20141200</v>
       </c>
-      <c r="F39" s="30" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="40" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="63" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>624</v>
       </c>
@@ -4619,150 +4863,159 @@
         <v>48</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="3"/>
+        <v>768</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>770</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="E41" s="29" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="E42" s="24" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="D43" s="3"/>
+      <c r="F43" s="28"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="E45" s="24" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B46" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>64</v>
-      </c>
       <c r="E46" s="34" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="E47" s="24" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="3"/>
@@ -4772,766 +5025,776 @@
         <v>624</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="24">
+        <v>99924</v>
+      </c>
+      <c r="F50" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D53" s="38"/>
       <c r="E53" s="39"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="E54" s="24" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E55" s="24" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="E57" s="24" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="E58" s="24" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C60" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>702</v>
+      </c>
+      <c r="F60" s="30" t="s">
         <v>703</v>
       </c>
-      <c r="D60" s="4" t="s">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>624</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>708</v>
+      </c>
+      <c r="F61" s="30" t="s">
         <v>706</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>704</v>
-      </c>
-      <c r="F60" s="30" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>625</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>710</v>
-      </c>
-      <c r="F61" s="30" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="E62" s="24" t="s">
         <v>707</v>
       </c>
-      <c r="E62" s="24" t="s">
-        <v>709</v>
-      </c>
       <c r="F62" s="30" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="E63" s="24" t="s">
+        <v>712</v>
+      </c>
+      <c r="F63" s="30" t="s">
         <v>713</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>714</v>
-      </c>
-      <c r="F63" s="30" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="E65" s="29" t="s">
+        <v>715</v>
+      </c>
+      <c r="F65" s="30" t="s">
         <v>716</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E65" s="29" t="s">
-        <v>717</v>
-      </c>
-      <c r="F65" s="30" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B68" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="E70" s="24" t="s">
         <v>719</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="E70" s="24" t="s">
+      <c r="F70" s="30" t="s">
         <v>721</v>
-      </c>
-      <c r="F70" s="30" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E71" s="24" t="s">
         <v>720</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="E71" s="24" t="s">
+      <c r="F71" s="30" t="s">
         <v>722</v>
-      </c>
-      <c r="F71" s="30" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="E72" s="24" t="s">
+        <v>667</v>
+      </c>
+      <c r="F72" s="30" t="s">
         <v>668</v>
-      </c>
-      <c r="F72" s="30" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="E73" s="24" t="s">
+        <v>669</v>
+      </c>
+      <c r="F73" s="30" t="s">
         <v>670</v>
-      </c>
-      <c r="F73" s="30" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="E74" s="29" t="s">
+        <v>725</v>
+      </c>
+      <c r="F74" t="s">
         <v>681</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>727</v>
-      </c>
-      <c r="F74" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="E75" s="24" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F75" s="30" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="E78" s="24" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F78" s="30" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="E80" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="F80" s="30" t="s">
         <v>732</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E80" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="F80" s="30" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="E81" s="24" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F81" s="30" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="E82" s="24" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E83" s="24" t="s">
         <v>739</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="F83" s="30" t="s">
         <v>740</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E83" s="24" t="s">
-        <v>741</v>
-      </c>
-      <c r="F83" s="30" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E84" s="24" t="s">
+        <v>741</v>
+      </c>
+      <c r="F84" s="30" t="s">
         <v>743</v>
-      </c>
-      <c r="F84" s="30" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F85" s="30" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>748</v>
-      </c>
       <c r="E86" s="24" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F86" s="30" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G86" s="30"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E87" s="24" t="s">
         <v>753</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E87" s="24" t="s">
-        <v>755</v>
-      </c>
       <c r="F87" s="30" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F88" s="30" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="E89" s="24" t="s">
+        <v>758</v>
+      </c>
+      <c r="F89" s="30" t="s">
         <v>759</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E89" s="24" t="s">
-        <v>760</v>
-      </c>
-      <c r="F89" s="30" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="E92" s="24" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F92" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C93" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E93" s="24" t="s">
         <v>765</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>767</v>
-      </c>
       <c r="F93" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E94" s="24">
         <v>52</v>
       </c>
       <c r="F94" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="3"/>
@@ -5576,19 +5839,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="F1" s="11"/>
     </row>
@@ -5597,19 +5860,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5617,19 +5880,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5637,19 +5900,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5657,19 +5920,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="E5" s="4">
         <v>6</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5677,19 +5940,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="E6" s="4">
         <v>7</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5697,19 +5960,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="E7" s="4">
         <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5717,19 +5980,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="E8" s="4">
         <v>35</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5737,19 +6000,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="E9" s="4">
         <v>82</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5757,19 +6020,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="E10" s="4">
         <v>83</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -5777,19 +6040,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="E11" s="4">
         <v>83</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5797,19 +6060,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="E12" s="4">
         <v>84</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5817,19 +6080,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="E13" s="4">
         <v>87</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5837,19 +6100,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="E14" s="4">
         <v>88</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5857,7 +6120,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -5865,7 +6128,7 @@
         <v>203</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5873,15 +6136,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5889,15 +6152,15 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5905,19 +6168,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E18" s="4">
         <v>653</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5925,19 +6188,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E19" s="4">
         <v>653</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5945,15 +6208,15 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5961,15 +6224,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5977,15 +6240,15 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5993,15 +6256,15 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -6009,15 +6272,15 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -6025,15 +6288,15 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6041,15 +6304,15 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6057,15 +6320,15 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6073,15 +6336,15 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6089,15 +6352,15 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6105,15 +6368,15 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -6121,15 +6384,15 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -6137,15 +6400,15 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6153,15 +6416,15 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -6169,15 +6432,15 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6185,15 +6448,15 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6201,15 +6464,15 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6217,15 +6480,15 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6233,15 +6496,15 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -6249,15 +6512,15 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6265,15 +6528,15 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -6281,15 +6544,15 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6297,15 +6560,15 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6313,15 +6576,15 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -6329,15 +6592,15 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6345,15 +6608,15 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6361,15 +6624,15 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6377,15 +6640,15 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6393,15 +6656,15 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6409,15 +6672,15 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -6425,15 +6688,15 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -6441,15 +6704,15 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6457,15 +6720,15 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -6473,15 +6736,15 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6489,15 +6752,15 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -6505,15 +6768,15 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6521,15 +6784,15 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -6537,15 +6800,15 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -6553,15 +6816,15 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6569,15 +6832,15 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6585,15 +6848,15 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -6601,15 +6864,15 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -6617,15 +6880,15 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6633,15 +6896,15 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6649,15 +6912,15 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -6665,15 +6928,15 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -6681,15 +6944,15 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -6697,15 +6960,15 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -6713,15 +6976,15 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -6729,15 +6992,15 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -6745,15 +7008,15 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -6761,15 +7024,15 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -6777,15 +7040,15 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -6793,15 +7056,15 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -6809,15 +7072,15 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -6825,15 +7088,15 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -6841,15 +7104,15 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -6857,15 +7120,15 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -6873,15 +7136,15 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -6889,15 +7152,15 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -6905,15 +7168,15 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -6921,15 +7184,15 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -6937,15 +7200,15 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -6953,15 +7216,15 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -6969,15 +7232,15 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -6985,15 +7248,15 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -7001,15 +7264,15 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -7017,15 +7280,15 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -7033,15 +7296,15 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -7049,15 +7312,15 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -7065,15 +7328,15 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -7081,15 +7344,15 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -7097,19 +7360,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C92" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="E92" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -7117,19 +7380,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C93" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="E93" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -7137,12 +7400,12 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F94" s="4">
         <v>1</v>
@@ -7153,12 +7416,12 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -7169,19 +7432,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D96" s="4" t="s">
+      <c r="E96" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="F96" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -7189,19 +7452,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D97" s="4" t="s">
+      <c r="E97" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F97" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -7209,19 +7472,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D98" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="F98" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -7229,19 +7492,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D99" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="F99" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -7249,19 +7512,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D100" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="F100" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -7269,19 +7532,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D101" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="F101" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -7289,15 +7552,15 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F102" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -7305,19 +7568,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="E103" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="F103" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -7325,19 +7588,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="D104" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="E104" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="F104" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -7345,19 +7608,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E105" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>361</v>
-      </c>
       <c r="F105" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -7365,16 +7628,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D106" s="4" t="s">
+      <c r="E106" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>364</v>
       </c>
       <c r="F106" s="4"/>
     </row>
@@ -7383,19 +7646,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="E107" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="F107" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -7403,19 +7666,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="D108" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="E108" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="F108" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -7423,19 +7686,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="D109" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>372</v>
-      </c>
       <c r="E109" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F109" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -7443,19 +7706,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D110" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E110" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="F110" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -7463,15 +7726,15 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F111" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -7479,19 +7742,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C112" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="E112" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="F112" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -7499,19 +7762,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C113" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="E113" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="F113" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -7519,19 +7782,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E114" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>392</v>
-      </c>
       <c r="F114" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -7539,19 +7802,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="D115" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>395</v>
-      </c>
       <c r="E115" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F115" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -7559,19 +7822,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D116" s="4" t="s">
+      <c r="E116" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="F116" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -7579,19 +7842,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D117" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E117" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="F117" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -7599,19 +7862,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C118" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="E118" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="F118" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -7619,19 +7882,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C119" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="E119" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="F119" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -7639,19 +7902,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="D120" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="E120" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="F120" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -7659,19 +7922,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C121" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="E121" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="F121" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -7679,19 +7942,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="E122" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="F122" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -7699,19 +7962,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C123" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="E123" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="F123" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -7719,19 +7982,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E124" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>429</v>
-      </c>
       <c r="F124" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -7739,19 +8002,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C125" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>431</v>
-      </c>
       <c r="E125" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="F125" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -7759,19 +8022,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C126" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="E126" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="E126" s="4" t="s">
+      <c r="F126" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -7779,19 +8042,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="D127" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="E127" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="F127" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -7799,19 +8062,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D128" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D128" s="4" t="s">
+      <c r="E128" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="F128" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -7819,15 +8082,15 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="F129" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -7835,15 +8098,15 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F130" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -7851,19 +8114,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C131" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D131" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="E131" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="F131" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -7871,19 +8134,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C132" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D132" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="E132" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="E132" s="4" t="s">
-        <v>452</v>
-      </c>
       <c r="F132" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -7891,19 +8154,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D133" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D133" s="4" t="s">
+      <c r="E133" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="F133" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -7911,19 +8174,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="E134" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F134" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -7931,19 +8194,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D135" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D135" s="4" t="s">
+      <c r="E135" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="E135" s="4" t="s">
-        <v>364</v>
-      </c>
       <c r="F135" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -7951,19 +8214,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="D136" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="E136" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="E136" s="4" t="s">
+      <c r="F136" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -7971,19 +8234,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D137" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C137" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D137" s="4" t="s">
+      <c r="E137" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="E137" s="4" t="s">
+      <c r="F137" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -7991,19 +8254,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D138" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D138" s="4" t="s">
+      <c r="E138" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="E138" s="4" t="s">
+      <c r="F138" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -8011,15 +8274,15 @@
         <v>139</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F139" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -8027,19 +8290,19 @@
         <v>142</v>
       </c>
       <c r="B140" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D140" s="4" t="s">
+      <c r="E140" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="E140" s="4" t="s">
+      <c r="F140" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -8047,19 +8310,19 @@
         <v>143</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D141" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E141" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="E141" s="4" t="s">
+      <c r="F141" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -8067,19 +8330,19 @@
         <v>144</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D142" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E142" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E142" s="4" t="s">
+      <c r="F142" s="4" t="s">
         <v>488</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -8087,19 +8350,19 @@
         <v>145</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D143" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="E143" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="F143" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -8107,19 +8370,19 @@
         <v>146</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D144" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="E144" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="E144" s="4" t="s">
+      <c r="F144" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -8127,19 +8390,19 @@
         <v>147</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D145" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E145" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="E145" s="4" t="s">
+      <c r="F145" s="4" t="s">
         <v>500</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -8147,19 +8410,19 @@
         <v>148</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D146" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="E146" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="E146" s="4" t="s">
+      <c r="F146" s="4" t="s">
         <v>504</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -8167,19 +8430,19 @@
         <v>149</v>
       </c>
       <c r="B147" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D147" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D147" s="4" t="s">
+      <c r="E147" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="E147" s="4" t="s">
+      <c r="F147" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -8187,19 +8450,19 @@
         <v>150</v>
       </c>
       <c r="B148" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D148" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D148" s="5" t="s">
+      <c r="E148" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="E148" s="4" t="s">
+      <c r="F148" s="4" t="s">
         <v>512</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -8207,19 +8470,19 @@
         <v>151</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="D149" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="E149" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="E149" s="4" t="s">
+      <c r="F149" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -8227,19 +8490,19 @@
         <v>152</v>
       </c>
       <c r="B150" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D150" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D150" s="4" t="s">
+      <c r="E150" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="E150" s="4" t="s">
+      <c r="F150" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -8247,19 +8510,19 @@
         <v>153</v>
       </c>
       <c r="B151" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D151" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="C151" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D151" s="4" t="s">
+      <c r="E151" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="E151" s="4" t="s">
+      <c r="F151" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -8267,19 +8530,19 @@
         <v>154</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D152" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E152" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="E152" s="4" t="s">
+      <c r="F152" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -8287,19 +8550,19 @@
         <v>155</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D153" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E153" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="E153" s="4" t="s">
+      <c r="F153" s="4" t="s">
         <v>532</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -8307,19 +8570,19 @@
         <v>156</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C154" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E154" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="D154" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E154" s="4" t="s">
+      <c r="F154" s="4" t="s">
         <v>535</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -8327,19 +8590,19 @@
         <v>157</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D155" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E155" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="E155" s="4" t="s">
+      <c r="F155" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -8347,19 +8610,19 @@
         <v>158</v>
       </c>
       <c r="B156" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D156" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D156" s="4" t="s">
+      <c r="E156" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E156" s="4" t="s">
+      <c r="F156" s="4" t="s">
         <v>543</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -8367,19 +8630,19 @@
         <v>159</v>
       </c>
       <c r="B157" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D157" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D157" s="4" t="s">
+      <c r="E157" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="E157" s="4" t="s">
+      <c r="F157" s="4" t="s">
         <v>547</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -8387,19 +8650,19 @@
         <v>160</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D158" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E158" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="E158" s="4" t="s">
+      <c r="F158" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -8407,15 +8670,15 @@
         <v>161</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F159" s="4" t="s">
         <v>554</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -8423,19 +8686,19 @@
         <v>162</v>
       </c>
       <c r="B160" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D160" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D160" s="4" t="s">
+      <c r="E160" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="E160" s="4" t="s">
+      <c r="F160" s="4" t="s">
         <v>558</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -8443,19 +8706,19 @@
         <v>163</v>
       </c>
       <c r="B161" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D161" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="C161" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D161" s="5" t="s">
+      <c r="E161" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="E161" s="4" t="s">
+      <c r="F161" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -8463,19 +8726,19 @@
         <v>164</v>
       </c>
       <c r="B162" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="E162" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="C162" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="E162" s="4" t="s">
+      <c r="F162" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -8483,19 +8746,19 @@
         <v>165</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -8503,19 +8766,19 @@
         <v>166</v>
       </c>
       <c r="B164" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D164" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="C164" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>569</v>
-      </c>
       <c r="E164" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="F164" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -8523,19 +8786,19 @@
         <v>167</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D165" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="C165" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D165" s="4" t="s">
+      <c r="E165" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="E165" s="4" t="s">
+      <c r="F165" s="4" t="s">
         <v>572</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -8543,15 +8806,15 @@
         <v>168</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="F166" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -8559,15 +8822,15 @@
         <v>169</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -8575,15 +8838,15 @@
         <v>170</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -8591,15 +8854,15 @@
         <v>171</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -8607,15 +8870,15 @@
         <v>172</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -8623,15 +8886,15 @@
         <v>173</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -8639,15 +8902,15 @@
         <v>174</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -8655,15 +8918,15 @@
         <v>175</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="F173" s="4" t="s">
         <v>584</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -8671,15 +8934,15 @@
         <v>176</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F174" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -8687,15 +8950,15 @@
         <v>177</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="F175" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -8703,15 +8966,15 @@
         <v>178</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="F176" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -8719,15 +8982,15 @@
         <v>179</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="F177" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -8735,15 +8998,15 @@
         <v>180</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F178" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="F178" s="4" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -8751,15 +9014,15 @@
         <v>181</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -8767,15 +9030,15 @@
         <v>182</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -8783,15 +9046,15 @@
         <v>183</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="F181" s="4" t="s">
         <v>599</v>
-      </c>
-      <c r="F181" s="4" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -8799,19 +9062,19 @@
         <v>184</v>
       </c>
       <c r="B182" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D182" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="C182" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D182" s="4" t="s">
+      <c r="E182" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="E182" s="4" t="s">
+      <c r="F182" s="4" t="s">
         <v>603</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -8819,13 +9082,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="D183" s="4" t="s">
         <v>606</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>607</v>
       </c>
       <c r="E183" s="4">
         <v>4</v>
